--- a/data/trans_bre/P21B_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P21B_R-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.470831762203018</v>
+        <v>-5.623248554299774</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.789301086305113</v>
+        <v>-1.756436405395963</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.17794684224506</v>
+        <v>-1.000864064979571</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.96509232079705</v>
+        <v>-9.065446061825297</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.05562039812281849</v>
+        <v>-0.05691623039943027</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.01800993140244833</v>
+        <v>-0.01771861206193891</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.01213443667592877</v>
+        <v>-0.01014126632428961</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.09128397901366186</v>
+        <v>-0.09213962864088608</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.27045217134437</v>
+        <v>1.210756533589532</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.561588951783192</v>
+        <v>2.337184487714016</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.762689063594272</v>
+        <v>6.762812987712696</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.8751290195833636</v>
+        <v>-0.8093591884256908</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.01315413858691822</v>
+        <v>0.01226782754112526</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02663532500448801</v>
+        <v>0.02412682492256069</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07462770893723347</v>
+        <v>0.07376687671859986</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.009346054391679952</v>
+        <v>-0.008788860828618907</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-1.832501586819291</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-4.151858749018555</v>
+        <v>-4.151858749018544</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03897631461966607</v>
@@ -749,7 +749,7 @@
         <v>-0.01937484966592727</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.04241046046264309</v>
+        <v>-0.04241046046264299</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2142808587196077</v>
+        <v>0.100320948078937</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.808772744372001</v>
+        <v>-5.050283177481528</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-7.246937961734282</v>
+        <v>-6.825383903390135</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-7.38892844025272</v>
+        <v>-7.765246047408687</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.002363678273656542</v>
+        <v>0.001326604826287301</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.04860468394880681</v>
+        <v>-0.05083200803008648</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.07499538241790085</v>
+        <v>-0.07074870454444959</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.0759332952096298</v>
+        <v>-0.07823464844089192</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.858488339014127</v>
+        <v>8.147777414102462</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.005052699929719</v>
+        <v>1.086483311407598</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.118343008124132</v>
+        <v>3.878472724451692</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-0.8951627199745401</v>
+        <v>-0.8108338029660661</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08605507012366909</v>
+        <v>0.08966850840440012</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01020910776647089</v>
+        <v>0.01114699669336132</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04428450677786708</v>
+        <v>0.0429922481675435</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.009470265223353778</v>
+        <v>-0.008369598422688883</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.5253390676451253</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7092457881228142</v>
+        <v>0.7092457881228365</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03474159369835853</v>
@@ -849,7 +849,7 @@
         <v>0.005991725450446869</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.007687478309576017</v>
+        <v>0.007687478309576259</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3617467434391894</v>
+        <v>-0.3267982025756498</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.080829410277293</v>
+        <v>-7.82784633466432</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.784222846245116</v>
+        <v>-7.569671371732236</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.561522676491697</v>
+        <v>-3.737220387677603</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.003588078595989196</v>
+        <v>-0.003177707900618652</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.08172491668711357</v>
+        <v>-0.07867149604114641</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.08489407042183587</v>
+        <v>-0.08176789399659189</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.03755861217584497</v>
+        <v>-0.03958172846682882</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.033314066016823</v>
+        <v>8.198219888860214</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.796960871106176</v>
+        <v>-0.8420379389621498</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.218335374634959</v>
+        <v>9.671525891726432</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.361467929888437</v>
+        <v>5.14092526506017</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.09028575562575507</v>
+        <v>0.09202938865729166</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.008191896635461028</v>
+        <v>-0.008703223368587988</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1008805586026802</v>
+        <v>0.1193428640939607</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.0600578172687203</v>
+        <v>0.05773007618759575</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-3.886049923755031</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.059173827839823</v>
+        <v>3.059173827839812</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.05611208562783189</v>
@@ -949,7 +949,7 @@
         <v>-0.04266955452286759</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.03673643817843226</v>
+        <v>0.03673643817843213</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-13.91221407792932</v>
+        <v>-14.72955414512307</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.242539171951958</v>
+        <v>-3.491259930026009</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-13.42977011291502</v>
+        <v>-12.99086569825549</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.303313156305406</v>
+        <v>-4.24756836151241</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1392460953277005</v>
+        <v>-0.1489190310506121</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.04465591989294528</v>
+        <v>-0.03597699498985652</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1399626562304829</v>
+        <v>-0.1415648461236757</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.03883922630506127</v>
+        <v>-0.04985874819875026</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7034091313541216</v>
+        <v>0.3455848584269604</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.81802897289516</v>
+        <v>13.91944913037659</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.299015789522789</v>
+        <v>5.435949211183018</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.8220418578708</v>
+        <v>10.35423124428529</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.007284592754930305</v>
+        <v>0.003577444525466073</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1680808163965344</v>
+        <v>0.1680759239852684</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06183652184319065</v>
+        <v>0.06056223626589809</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1393461965818142</v>
+        <v>0.1313465192146243</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-0.003368170104611767</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.04715090112691334</v>
+        <v>0.04715090112690223</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01103744197879553</v>
@@ -1049,7 +1049,7 @@
         <v>-3.633500127793841e-05</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.0005139796701243595</v>
+        <v>0.0005139796701242385</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.021358744387946</v>
+        <v>-0.9845289384146919</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.394771323472128</v>
+        <v>-2.413381557458664</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.970287866154311</v>
+        <v>-2.900165111156786</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.518777320677726</v>
+        <v>-2.784238837627195</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.01058843322052266</v>
+        <v>-0.01013432604573211</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.0243879529765348</v>
+        <v>-0.02460170439037409</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.0318450725016008</v>
+        <v>-0.03065258822865088</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.02713000556770791</v>
+        <v>-0.02978006099917118</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.335902677367213</v>
+        <v>3.445763120796382</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.086450063238482</v>
+        <v>1.012125499934598</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.864170657164727</v>
+        <v>3.228661156409857</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.907850988025358</v>
+        <v>3.097651256721172</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.0352188091477661</v>
+        <v>0.03631479727029156</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01125832223182467</v>
+        <v>0.01057643937684349</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03142986432144023</v>
+        <v>0.03544029068695026</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.03238494372957366</v>
+        <v>0.03462584678415668</v>
       </c>
     </row>
     <row r="19">
